--- a/DataTable/Common/AccountDataTable.xlsx
+++ b/DataTable/Common/AccountDataTable.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\DG\trunk\DataTable\Common\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\ProjectD\DataTable\Common\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -30,11 +30,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>NEED_EXP</t>
+    <t>MAX_ENERGY</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>MAX_ENERGY</t>
+    <t>MAX_EXP</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -368,7 +368,7 @@
   <dimension ref="A1:C51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -382,10 +382,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">

--- a/DataTable/Common/AccountDataTable.xlsx
+++ b/DataTable/Common/AccountDataTable.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\ProjectD\DataTable\Common\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\1000Download\ProjectD\DataTable\Common\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AE20576-9C88-4492-AF03-8580B3BC184B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8490"/>
+    <workbookView xWindow="3900" yWindow="3060" windowWidth="20925" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ACCOUNT" sheetId="4" r:id="rId1"/>
@@ -26,10 +27,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
-    <t>LEVEL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>MAX_ENERGY</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -37,11 +34,15 @@
     <t>MAX_EXP</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>;LEVEL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -364,11 +365,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C51"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A2:C52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -377,564 +378,564 @@
     <col min="5" max="6" width="15.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>100</v>
-      </c>
-      <c r="C2">
-        <v>150</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="C3">
-        <v>160</v>
+        <v>150</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="C4">
-        <v>170</v>
+        <v>160</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="C5">
-        <v>180</v>
+        <v>170</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="C6">
-        <v>190</v>
+        <v>180</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="C7">
-        <v>200</v>
+        <v>190</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="C8">
-        <v>210</v>
+        <v>200</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="C9">
-        <v>220</v>
+        <v>210</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="C10">
-        <v>230</v>
+        <v>220</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="C11">
-        <v>240</v>
+        <v>230</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="C12">
-        <v>250</v>
+        <v>240</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="C13">
-        <v>260</v>
+        <v>250</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="C14">
-        <v>270</v>
+        <v>260</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="C15">
-        <v>280</v>
+        <v>270</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="C16">
-        <v>290</v>
+        <v>280</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="C17">
-        <v>300</v>
+        <v>290</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="C18">
-        <v>310</v>
+        <v>300</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="C19">
-        <v>320</v>
+        <v>310</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>1900</v>
+        <v>1800</v>
       </c>
       <c r="C20">
-        <v>330</v>
+        <v>320</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="C21">
-        <v>340</v>
+        <v>330</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="C22">
-        <v>350</v>
+        <v>340</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23">
-        <v>2200</v>
+        <v>2100</v>
       </c>
       <c r="C23">
-        <v>360</v>
+        <v>350</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24">
-        <v>2300</v>
+        <v>2200</v>
       </c>
       <c r="C24">
-        <v>370</v>
+        <v>360</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25">
-        <v>2400</v>
+        <v>2300</v>
       </c>
       <c r="C25">
-        <v>380</v>
+        <v>370</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26">
-        <v>2500</v>
+        <v>2400</v>
       </c>
       <c r="C26">
-        <v>390</v>
+        <v>380</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27">
-        <v>2600</v>
+        <v>2500</v>
       </c>
       <c r="C27">
-        <v>400</v>
+        <v>390</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28">
-        <v>2700</v>
+        <v>2600</v>
       </c>
       <c r="C28">
-        <v>410</v>
+        <v>400</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29">
-        <v>2800</v>
+        <v>2700</v>
       </c>
       <c r="C29">
-        <v>420</v>
+        <v>410</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30">
-        <v>2900</v>
+        <v>2800</v>
       </c>
       <c r="C30">
-        <v>430</v>
+        <v>420</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31">
-        <v>3000</v>
+        <v>2900</v>
       </c>
       <c r="C31">
-        <v>440</v>
+        <v>430</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32">
-        <v>3100</v>
+        <v>3000</v>
       </c>
       <c r="C32">
-        <v>450</v>
+        <v>440</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33">
-        <v>3200</v>
+        <v>3100</v>
       </c>
       <c r="C33">
-        <v>460</v>
+        <v>450</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34">
-        <v>3300</v>
+        <v>3200</v>
       </c>
       <c r="C34">
-        <v>470</v>
+        <v>460</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35">
-        <v>3400</v>
+        <v>3300</v>
       </c>
       <c r="C35">
-        <v>480</v>
+        <v>470</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36">
-        <v>3500</v>
+        <v>3400</v>
       </c>
       <c r="C36">
-        <v>490</v>
+        <v>480</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37">
-        <v>3600</v>
+        <v>3500</v>
       </c>
       <c r="C37">
-        <v>500</v>
+        <v>490</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38">
-        <v>3700</v>
+        <v>3600</v>
       </c>
       <c r="C38">
-        <v>510</v>
+        <v>500</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B39">
-        <v>3800</v>
+        <v>3700</v>
       </c>
       <c r="C39">
-        <v>520</v>
+        <v>510</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B40">
-        <v>3900</v>
+        <v>3800</v>
       </c>
       <c r="C40">
-        <v>530</v>
+        <v>520</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B41">
-        <v>4000</v>
+        <v>3900</v>
       </c>
       <c r="C41">
-        <v>540</v>
+        <v>530</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B42">
-        <v>4100</v>
+        <v>4000</v>
       </c>
       <c r="C42">
-        <v>550</v>
+        <v>540</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B43">
-        <v>4200</v>
+        <v>4100</v>
       </c>
       <c r="C43">
-        <v>560</v>
+        <v>550</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B44">
-        <v>4300</v>
+        <v>4200</v>
       </c>
       <c r="C44">
-        <v>570</v>
+        <v>560</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B45">
-        <v>4400</v>
+        <v>4300</v>
       </c>
       <c r="C45">
-        <v>580</v>
+        <v>570</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B46">
-        <v>4500</v>
+        <v>4400</v>
       </c>
       <c r="C46">
-        <v>590</v>
+        <v>580</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B47">
-        <v>4600</v>
+        <v>4500</v>
       </c>
       <c r="C47">
-        <v>600</v>
+        <v>590</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B48">
-        <v>4700</v>
+        <v>4600</v>
       </c>
       <c r="C48">
-        <v>610</v>
+        <v>600</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B49">
-        <v>4800</v>
+        <v>4700</v>
       </c>
       <c r="C49">
-        <v>620</v>
+        <v>610</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B50">
-        <v>4900</v>
+        <v>4800</v>
       </c>
       <c r="C50">
-        <v>630</v>
+        <v>620</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51">
+        <v>49</v>
+      </c>
+      <c r="B51">
+        <v>4900</v>
+      </c>
+      <c r="C51">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52">
         <v>50</v>
       </c>
-      <c r="B51">
+      <c r="B52">
         <v>5000</v>
       </c>
-      <c r="C51">
+      <c r="C52">
         <v>640</v>
       </c>
     </row>
